--- a/frontend/public/templates/plantilla_recursos.xlsx
+++ b/frontend/public/templates/plantilla_recursos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Proyecto de Título\Documentos Apoyo\Plantilas Importacion Masiva\Ejemplos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4547CF8-8C9D-4632-828B-446395A80E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFD98A4-A797-4331-957B-113D2376C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42870" yWindow="4860" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="10110" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantilla_libros.xlsx_x000a_Obligator" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>ubicacion</t>
   </si>
   <si>
-    <t>Set de Ajedrez de Madera</t>
-  </si>
-  <si>
     <t>juego</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Estante de Juegos</t>
+  </si>
+  <si>
+    <t>Madera</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,18 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -351,25 +360,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/templates/plantilla_recursos.xlsx
+++ b/frontend/public/templates/plantilla_recursos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Proyecto de Título\Documentos Apoyo\Plantilas Importacion Masiva\Ejemplos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyect_Sophia\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFD98A4-A797-4331-957B-113D2376C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A2A8F-8A18-4CDE-BFD1-B73955FE85F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="10110" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plantilla_libros.xlsx_x000a_Obligator" sheetId="1" r:id="rId1"/>
+    <sheet name="y las plantillas debo modificar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>nombre</t>
   </si>
@@ -31,9 +31,6 @@
     <t>sede</t>
   </si>
   <si>
-    <t>codigoInternoBase</t>
-  </si>
-  <si>
     <t>cantidadInstancias</t>
   </si>
   <si>
@@ -43,22 +40,145 @@
     <t>ubicacion</t>
   </si>
   <si>
+    <t>(Ej: Bodega CRA)</t>
+  </si>
+  <si>
+    <t>Proyector Epson PowerLite</t>
+  </si>
+  <si>
+    <t>tecnologia</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Modelo E20, 3400 lúmenes</t>
+  </si>
+  <si>
+    <t>Set de Microscopios</t>
+  </si>
+  <si>
+    <t>pedagogico</t>
+  </si>
+  <si>
+    <t>Basica</t>
+  </si>
+  <si>
+    <t>Incluye 10 portaobjetos por set</t>
+  </si>
+  <si>
+    <t>Kit de Robótica Lego Mindstorms</t>
+  </si>
+  <si>
+    <t>Kit EV3 para talleres</t>
+  </si>
+  <si>
+    <t>Balones de Fútbol (Set de 5)</t>
+  </si>
+  <si>
+    <t>otro</t>
+  </si>
+  <si>
+    <t>Balones N°5</t>
+  </si>
+  <si>
+    <t>Guitarras Acústicas (Cuerdas de Nylon)</t>
+  </si>
+  <si>
+    <t>Para taller de música</t>
+  </si>
+  <si>
+    <t>Pizarras Blancas Portátiles</t>
+  </si>
+  <si>
+    <t>Tamaño 90x60 cm</t>
+  </si>
+  <si>
+    <t>Set de Ajedrez de Torneo</t>
+  </si>
+  <si>
     <t>juego</t>
   </si>
   <si>
-    <t>Basica</t>
-  </si>
-  <si>
-    <t>AJZ-01</t>
-  </si>
-  <si>
-    <t>Set completo de ajedrez con tablero y piezas de madera.</t>
-  </si>
-  <si>
-    <t>Estante de Juegos</t>
-  </si>
-  <si>
-    <t>Madera</t>
+    <t>Piezas de plástico, tablero enrollable</t>
+  </si>
+  <si>
+    <t>Globos Terráqueos</t>
+  </si>
+  <si>
+    <t>Con relieve político y físico</t>
+  </si>
+  <si>
+    <t>Kit de Química Básica</t>
+  </si>
+  <si>
+    <t>Para experimentos de laboratorio</t>
+  </si>
+  <si>
+    <t>Set de Construcción Magnético</t>
+  </si>
+  <si>
+    <t>100 piezas por set</t>
+  </si>
+  <si>
+    <t>Cámara Fotográfica Canon EOS</t>
+  </si>
+  <si>
+    <t>Modelo Rebel T7 con lente 18-55mm</t>
+  </si>
+  <si>
+    <t>Set de Pintura Acrílica</t>
+  </si>
+  <si>
+    <t>12 colores básicos por set</t>
+  </si>
+  <si>
+    <t>Teclados Musicales Casio</t>
+  </si>
+  <si>
+    <t>Modelo CTK-2550</t>
+  </si>
+  <si>
+    <t>Esqueletos Humanos (Modelo Anatómico)</t>
+  </si>
+  <si>
+    <t>Tamaño real</t>
+  </si>
+  <si>
+    <t>Set de Cuentos con Marionetas</t>
+  </si>
+  <si>
+    <t>Caperucita, 3 Cerditos, etc.</t>
+  </si>
+  <si>
+    <t>Conos de Entrenamiento (Set de 20)</t>
+  </si>
+  <si>
+    <t>Para clases de educación física</t>
+  </si>
+  <si>
+    <t>Tablets de Dibujo Wacom</t>
+  </si>
+  <si>
+    <t>Modelo Intuos S</t>
+  </si>
+  <si>
+    <t>Mapas Murales de Chile</t>
+  </si>
+  <si>
+    <t>Físico, político y regional</t>
+  </si>
+  <si>
+    <t>Set de Juegos de Mesa (Ludo, Damas)</t>
+  </si>
+  <si>
+    <t>Tableros de madera</t>
+  </si>
+  <si>
+    <t>Parlante Bluetooth Portátil</t>
+  </si>
+  <si>
+    <t>Modelo JBL Flip 5</t>
   </si>
 </sst>
 </file>
@@ -320,22 +440,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -354,31 +471,348 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
